--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1992">
   <si>
     <t>en</t>
   </si>
@@ -1571,6 +1571,12 @@
   </si>
   <si>
     <t>Esplosivo</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Occhio</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -6333,7 +6339,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1180"/>
+  <dimension ref="A1:B1181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8879,36 +8885,36 @@
         <v>522</v>
       </c>
       <c r="B317" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B318" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B319" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B320" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B321" t="s">
         <v>527</v>
@@ -8935,12 +8941,12 @@
         <v>532</v>
       </c>
       <c r="B324" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B325" t="s">
         <v>534</v>
@@ -8983,12 +8989,12 @@
         <v>543</v>
       </c>
       <c r="B330" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B331" t="s">
         <v>545</v>
@@ -9783,36 +9789,36 @@
         <v>742</v>
       </c>
       <c r="B430" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B431" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B432" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B433" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B434" t="s">
         <v>747</v>
@@ -9887,12 +9893,12 @@
         <v>764</v>
       </c>
       <c r="B443" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B444" t="s">
         <v>766</v>
@@ -9903,12 +9909,12 @@
         <v>767</v>
       </c>
       <c r="B445" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B446" t="s">
         <v>769</v>
@@ -9919,12 +9925,12 @@
         <v>770</v>
       </c>
       <c r="B447" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B448" t="s">
         <v>772</v>
@@ -9959,12 +9965,12 @@
         <v>779</v>
       </c>
       <c r="B452" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B453" t="s">
         <v>781</v>
@@ -10039,12 +10045,12 @@
         <v>798</v>
       </c>
       <c r="B462" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B463" t="s">
         <v>800</v>
@@ -10055,20 +10061,20 @@
         <v>801</v>
       </c>
       <c r="B464" t="s">
-        <v>521</v>
+        <v>802</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B465" t="s">
-        <v>802</v>
+        <v>523</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B466" t="s">
         <v>804</v>
@@ -10103,36 +10109,36 @@
         <v>811</v>
       </c>
       <c r="B470" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B471" t="s">
-        <v>521</v>
+        <v>813</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B472" t="s">
-        <v>813</v>
+        <v>523</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B474" t="s">
         <v>816</v>
@@ -10167,12 +10173,12 @@
         <v>823</v>
       </c>
       <c r="B478" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B479" t="s">
         <v>825</v>
@@ -10183,12 +10189,12 @@
         <v>826</v>
       </c>
       <c r="B480" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B481" t="s">
         <v>828</v>
@@ -10207,12 +10213,12 @@
         <v>831</v>
       </c>
       <c r="B483" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B484" t="s">
         <v>833</v>
@@ -10223,20 +10229,20 @@
         <v>834</v>
       </c>
       <c r="B485" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s">
         <v>837</v>
@@ -10247,12 +10253,12 @@
         <v>838</v>
       </c>
       <c r="B488" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B489" t="s">
         <v>840</v>
@@ -10415,12 +10421,12 @@
         <v>879</v>
       </c>
       <c r="B509" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B510" t="s">
         <v>881</v>
@@ -10431,12 +10437,12 @@
         <v>882</v>
       </c>
       <c r="B511" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B512" t="s">
         <v>884</v>
@@ -10447,12 +10453,12 @@
         <v>885</v>
       </c>
       <c r="B513" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B514" t="s">
         <v>887</v>
@@ -10487,12 +10493,12 @@
         <v>894</v>
       </c>
       <c r="B518" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B519" t="s">
         <v>896</v>
@@ -10567,15 +10573,15 @@
         <v>913</v>
       </c>
       <c r="B528" t="s">
-        <v>519</v>
+        <v>914</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B529" t="s">
-        <v>915</v>
+        <v>521</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10607,12 +10613,12 @@
         <v>922</v>
       </c>
       <c r="B533" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B534" t="s">
         <v>924</v>
@@ -10655,12 +10661,12 @@
         <v>933</v>
       </c>
       <c r="B539" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B540" t="s">
         <v>935</v>
@@ -10695,20 +10701,20 @@
         <v>942</v>
       </c>
       <c r="B544" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B545" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B546" t="s">
         <v>945</v>
@@ -10719,12 +10725,12 @@
         <v>946</v>
       </c>
       <c r="B547" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B548" t="s">
         <v>948</v>
@@ -10735,12 +10741,12 @@
         <v>949</v>
       </c>
       <c r="B549" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B550" t="s">
         <v>951</v>
@@ -10767,12 +10773,12 @@
         <v>956</v>
       </c>
       <c r="B553" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B554" t="s">
         <v>958</v>
@@ -10839,20 +10845,20 @@
         <v>973</v>
       </c>
       <c r="B562" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B563" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B564" t="s">
         <v>976</v>
@@ -10895,12 +10901,12 @@
         <v>985</v>
       </c>
       <c r="B569" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B570" t="s">
         <v>987</v>
@@ -10927,12 +10933,12 @@
         <v>992</v>
       </c>
       <c r="B573" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B574" t="s">
         <v>994</v>
@@ -10951,20 +10957,20 @@
         <v>997</v>
       </c>
       <c r="B576" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B577" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B578" t="s">
         <v>1000</v>
@@ -10983,12 +10989,12 @@
         <v>1003</v>
       </c>
       <c r="B580" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B581" t="s">
         <v>1005</v>
@@ -11071,12 +11077,12 @@
         <v>1024</v>
       </c>
       <c r="B591" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B592" t="s">
         <v>1026</v>
@@ -11143,12 +11149,12 @@
         <v>1041</v>
       </c>
       <c r="B600" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B601" t="s">
         <v>1043</v>
@@ -11167,12 +11173,12 @@
         <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B604" t="s">
         <v>1048</v>
@@ -11223,20 +11229,20 @@
         <v>1059</v>
       </c>
       <c r="B610" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B611" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B612" t="s">
         <v>1062</v>
@@ -11247,20 +11253,20 @@
         <v>1063</v>
       </c>
       <c r="B613" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B614" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B615" t="s">
         <v>1066</v>
@@ -11319,12 +11325,12 @@
         <v>1079</v>
       </c>
       <c r="B622" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B623" t="s">
         <v>1081</v>
@@ -11335,20 +11341,20 @@
         <v>1082</v>
       </c>
       <c r="B624" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B625" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B626" t="s">
         <v>1085</v>
@@ -11359,92 +11365,92 @@
         <v>1086</v>
       </c>
       <c r="B627" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B628" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B629" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B630" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B631" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B632" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B633" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B634" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B635" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B636" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B638" t="s">
         <v>1098</v>
@@ -11455,36 +11461,36 @@
         <v>1099</v>
       </c>
       <c r="B639" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B640" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B643" t="s">
         <v>1104</v>
@@ -11519,12 +11525,12 @@
         <v>1111</v>
       </c>
       <c r="B647" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B648" t="s">
         <v>1113</v>
@@ -11535,12 +11541,12 @@
         <v>1114</v>
       </c>
       <c r="B649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B650" t="s">
         <v>1116</v>
@@ -11551,12 +11557,12 @@
         <v>1117</v>
       </c>
       <c r="B651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B652" t="s">
         <v>1119</v>
@@ -11575,20 +11581,20 @@
         <v>1122</v>
       </c>
       <c r="B654" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B655" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B656" t="s">
         <v>1125</v>
@@ -11647,28 +11653,28 @@
         <v>1138</v>
       </c>
       <c r="B663" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B664" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B665" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B666" t="s">
         <v>1142</v>
@@ -11727,12 +11733,12 @@
         <v>1155</v>
       </c>
       <c r="B673" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B674" t="s">
         <v>1157</v>
@@ -11751,12 +11757,12 @@
         <v>1160</v>
       </c>
       <c r="B676" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B677" t="s">
         <v>1162</v>
@@ -11783,12 +11789,12 @@
         <v>1167</v>
       </c>
       <c r="B680" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B681" t="s">
         <v>1169</v>
@@ -11879,12 +11885,12 @@
         <v>1190</v>
       </c>
       <c r="B692" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B693" t="s">
         <v>1192</v>
@@ -11927,12 +11933,12 @@
         <v>1201</v>
       </c>
       <c r="B698" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B699" t="s">
         <v>1203</v>
@@ -11943,20 +11949,20 @@
         <v>1204</v>
       </c>
       <c r="B700" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B701" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B702" t="s">
         <v>1207</v>
@@ -11967,36 +11973,36 @@
         <v>1208</v>
       </c>
       <c r="B703" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B704" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B705" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B706" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B707" t="s">
         <v>1213</v>
@@ -12007,20 +12013,20 @@
         <v>1214</v>
       </c>
       <c r="B708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B710" t="s">
         <v>1217</v>
@@ -12127,12 +12133,12 @@
         <v>1242</v>
       </c>
       <c r="B723" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B724" t="s">
         <v>1244</v>
@@ -12175,12 +12181,12 @@
         <v>1253</v>
       </c>
       <c r="B729" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B730" t="s">
         <v>1255</v>
@@ -12207,20 +12213,20 @@
         <v>1260</v>
       </c>
       <c r="B733" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B734" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B735" t="s">
         <v>1263</v>
@@ -12231,12 +12237,12 @@
         <v>1264</v>
       </c>
       <c r="B736" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B737" t="s">
         <v>1266</v>
@@ -12247,28 +12253,28 @@
         <v>1267</v>
       </c>
       <c r="B738" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B739" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B740" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B741" t="s">
         <v>1271</v>
@@ -12279,36 +12285,36 @@
         <v>1272</v>
       </c>
       <c r="B742" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B743" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B744" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B745" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B746" t="s">
         <v>1277</v>
@@ -12399,12 +12405,12 @@
         <v>1298</v>
       </c>
       <c r="B757" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B758" t="s">
         <v>1300</v>
@@ -12415,20 +12421,20 @@
         <v>1301</v>
       </c>
       <c r="B759" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B760" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B761" t="s">
         <v>1304</v>
@@ -12439,12 +12445,12 @@
         <v>1305</v>
       </c>
       <c r="B762" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B763" t="s">
         <v>1307</v>
@@ -12471,12 +12477,12 @@
         <v>1312</v>
       </c>
       <c r="B766" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B767" t="s">
         <v>1314</v>
@@ -12487,12 +12493,12 @@
         <v>1315</v>
       </c>
       <c r="B768" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B769" t="s">
         <v>1317</v>
@@ -12503,20 +12509,20 @@
         <v>1318</v>
       </c>
       <c r="B770" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B771" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B772" t="s">
         <v>1321</v>
@@ -12583,28 +12589,28 @@
         <v>1336</v>
       </c>
       <c r="B780" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B781" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B782" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B783" t="s">
         <v>1340</v>
@@ -12623,12 +12629,12 @@
         <v>1343</v>
       </c>
       <c r="B785" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B786" t="s">
         <v>1345</v>
@@ -12639,60 +12645,60 @@
         <v>1346</v>
       </c>
       <c r="B787" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B788" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B789" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B790" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B791" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B792" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B793" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B794" t="s">
         <v>1354</v>
@@ -12703,12 +12709,12 @@
         <v>1355</v>
       </c>
       <c r="B795" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B796" t="s">
         <v>1357</v>
@@ -12719,12 +12725,12 @@
         <v>1358</v>
       </c>
       <c r="B797" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B798" t="s">
         <v>1360</v>
@@ -12775,28 +12781,28 @@
         <v>1371</v>
       </c>
       <c r="B804" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B805" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B806" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B807" t="s">
         <v>1375</v>
@@ -12871,12 +12877,12 @@
         <v>1392</v>
       </c>
       <c r="B816" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B817" t="s">
         <v>1394</v>
@@ -12887,12 +12893,12 @@
         <v>1395</v>
       </c>
       <c r="B818" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B819" t="s">
         <v>1397</v>
@@ -12903,12 +12909,12 @@
         <v>1398</v>
       </c>
       <c r="B820" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B821" t="s">
         <v>1400</v>
@@ -12919,12 +12925,12 @@
         <v>1401</v>
       </c>
       <c r="B822" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B823" t="s">
         <v>1403</v>
@@ -12935,23 +12941,23 @@
         <v>1404</v>
       </c>
       <c r="B824" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B825" t="s">
-        <v>789</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B826" t="s">
-        <v>1407</v>
+        <v>791</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -12967,36 +12973,36 @@
         <v>1410</v>
       </c>
       <c r="B828" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B829" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B830" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B831" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B832" t="s">
         <v>1415</v>
@@ -13015,12 +13021,12 @@
         <v>1418</v>
       </c>
       <c r="B834" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B835" t="s">
         <v>1420</v>
@@ -13063,28 +13069,28 @@
         <v>1429</v>
       </c>
       <c r="B840" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B841" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B842" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B843" t="s">
         <v>1433</v>
@@ -13191,52 +13197,52 @@
         <v>1458</v>
       </c>
       <c r="B856" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B857" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B858" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B859" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B860" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B861" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B862" t="s">
         <v>1465</v>
@@ -13247,20 +13253,20 @@
         <v>1466</v>
       </c>
       <c r="B863" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B864" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B865" t="s">
         <v>1469</v>
@@ -13271,12 +13277,12 @@
         <v>1470</v>
       </c>
       <c r="B866" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B867" t="s">
         <v>1472</v>
@@ -13295,12 +13301,12 @@
         <v>1475</v>
       </c>
       <c r="B869" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B870" t="s">
         <v>1477</v>
@@ -13311,12 +13317,12 @@
         <v>1478</v>
       </c>
       <c r="B871" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B872" t="s">
         <v>1480</v>
@@ -13343,20 +13349,20 @@
         <v>1485</v>
       </c>
       <c r="B875" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B877" t="s">
         <v>1488</v>
@@ -13383,12 +13389,12 @@
         <v>1493</v>
       </c>
       <c r="B880" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B881" t="s">
         <v>1495</v>
@@ -13407,12 +13413,12 @@
         <v>1498</v>
       </c>
       <c r="B883" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B884" t="s">
         <v>1500</v>
@@ -13423,12 +13429,12 @@
         <v>1501</v>
       </c>
       <c r="B885" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B886" t="s">
         <v>1503</v>
@@ -13455,12 +13461,12 @@
         <v>1508</v>
       </c>
       <c r="B889" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B890" t="s">
         <v>1510</v>
@@ -13535,12 +13541,12 @@
         <v>1527</v>
       </c>
       <c r="B899" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B900" t="s">
         <v>1529</v>
@@ -13551,60 +13557,60 @@
         <v>1530</v>
       </c>
       <c r="B901" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B902" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B903" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B904" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B905" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B906" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B907" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B908" t="s">
         <v>1538</v>
@@ -13639,20 +13645,20 @@
         <v>1545</v>
       </c>
       <c r="B912" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B913" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B914" t="s">
         <v>1548</v>
@@ -13695,20 +13701,20 @@
         <v>1557</v>
       </c>
       <c r="B919" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B920" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B921" t="s">
         <v>1560</v>
@@ -13743,12 +13749,12 @@
         <v>1567</v>
       </c>
       <c r="B925" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B926" t="s">
         <v>1569</v>
@@ -13767,12 +13773,12 @@
         <v>1572</v>
       </c>
       <c r="B928" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B929" t="s">
         <v>1574</v>
@@ -13807,12 +13813,12 @@
         <v>1581</v>
       </c>
       <c r="B933" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B934" t="s">
         <v>1583</v>
@@ -13839,28 +13845,28 @@
         <v>1588</v>
       </c>
       <c r="B937" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B938" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B939" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B940" t="s">
         <v>1592</v>
@@ -13887,20 +13893,20 @@
         <v>1597</v>
       </c>
       <c r="B943" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B944" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B945" t="s">
         <v>1600</v>
@@ -13911,20 +13917,20 @@
         <v>1601</v>
       </c>
       <c r="B946" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B947" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B948" t="s">
         <v>1604</v>
@@ -13959,20 +13965,20 @@
         <v>1611</v>
       </c>
       <c r="B952" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B953" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B954" t="s">
         <v>1614</v>
@@ -14031,28 +14037,28 @@
         <v>1627</v>
       </c>
       <c r="B961" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B962" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B963" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B964" t="s">
         <v>1631</v>
@@ -14143,28 +14149,28 @@
         <v>1652</v>
       </c>
       <c r="B975" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B976" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B977" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B978" t="s">
         <v>1656</v>
@@ -14183,36 +14189,36 @@
         <v>1659</v>
       </c>
       <c r="B980" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B981" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B982" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B983" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B984" t="s">
         <v>1664</v>
@@ -14231,12 +14237,12 @@
         <v>1667</v>
       </c>
       <c r="B986" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B987" t="s">
         <v>1669</v>
@@ -14255,12 +14261,12 @@
         <v>1672</v>
       </c>
       <c r="B989" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B990" t="s">
         <v>1674</v>
@@ -14279,12 +14285,12 @@
         <v>1677</v>
       </c>
       <c r="B992" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B993" t="s">
         <v>1679</v>
@@ -14295,12 +14301,12 @@
         <v>1680</v>
       </c>
       <c r="B994" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B995" t="s">
         <v>1682</v>
@@ -14335,20 +14341,20 @@
         <v>1689</v>
       </c>
       <c r="B999" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1000" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1001" t="s">
         <v>1692</v>
@@ -14359,12 +14365,12 @@
         <v>1693</v>
       </c>
       <c r="B1002" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1003" t="s">
         <v>1695</v>
@@ -14375,28 +14381,28 @@
         <v>1696</v>
       </c>
       <c r="B1004" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1005" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1006" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1007" t="s">
         <v>1700</v>
@@ -14423,36 +14429,36 @@
         <v>1705</v>
       </c>
       <c r="B1010" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1011" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B1012" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1013" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1014" t="s">
         <v>1710</v>
@@ -14471,12 +14477,12 @@
         <v>1713</v>
       </c>
       <c r="B1016" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1017" t="s">
         <v>1715</v>
@@ -14503,12 +14509,12 @@
         <v>1720</v>
       </c>
       <c r="B1020" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1021" t="s">
         <v>1722</v>
@@ -14519,76 +14525,76 @@
         <v>1723</v>
       </c>
       <c r="B1022" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1023" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1024" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1025" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1026" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1027" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1028" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1029" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1030" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1031" t="s">
         <v>1733</v>
@@ -14607,12 +14613,12 @@
         <v>1736</v>
       </c>
       <c r="B1033" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1034" t="s">
         <v>1738</v>
@@ -14879,20 +14885,20 @@
         <v>1803</v>
       </c>
       <c r="B1067" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="B1068" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1069" t="s">
         <v>1806</v>
@@ -14911,20 +14917,20 @@
         <v>1809</v>
       </c>
       <c r="B1071" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1072" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1073" t="s">
         <v>1812</v>
@@ -14935,12 +14941,12 @@
         <v>1813</v>
       </c>
       <c r="B1074" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1075" t="s">
         <v>1815</v>
@@ -14951,20 +14957,20 @@
         <v>1816</v>
       </c>
       <c r="B1076" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1077" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1078" t="s">
         <v>1819</v>
@@ -14983,12 +14989,12 @@
         <v>1822</v>
       </c>
       <c r="B1080" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1081" t="s">
         <v>1824</v>
@@ -15039,12 +15045,12 @@
         <v>1835</v>
       </c>
       <c r="B1087" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="B1088" t="s">
         <v>1837</v>
@@ -15055,15 +15061,15 @@
         <v>1838</v>
       </c>
       <c r="B1089" t="s">
-        <v>130</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1090" t="s">
-        <v>1840</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -15087,12 +15093,12 @@
         <v>1845</v>
       </c>
       <c r="B1093" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1094" t="s">
         <v>1847</v>
@@ -15111,12 +15117,12 @@
         <v>1850</v>
       </c>
       <c r="B1096" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B1097" t="s">
         <v>1852</v>
@@ -15127,20 +15133,20 @@
         <v>1853</v>
       </c>
       <c r="B1098" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1099" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1100" t="s">
         <v>1856</v>
@@ -15183,20 +15189,20 @@
         <v>1865</v>
       </c>
       <c r="B1105" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="B1106" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="B1107" t="s">
         <v>1868</v>
@@ -15351,28 +15357,28 @@
         <v>1905</v>
       </c>
       <c r="B1126" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="B1127" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="B1128" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1129" t="s">
         <v>1909</v>
@@ -15383,12 +15389,12 @@
         <v>1910</v>
       </c>
       <c r="B1130" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1131" t="s">
         <v>1912</v>
@@ -15407,28 +15413,28 @@
         <v>1915</v>
       </c>
       <c r="B1133" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1134" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1135" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1136" t="s">
         <v>1919</v>
@@ -15495,12 +15501,12 @@
         <v>1934</v>
       </c>
       <c r="B1144" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="B1145" t="s">
         <v>1936</v>
@@ -15559,28 +15565,28 @@
         <v>1949</v>
       </c>
       <c r="B1152" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="B1153" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="B1154" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1155" t="s">
         <v>1953</v>
@@ -15607,20 +15613,20 @@
         <v>1958</v>
       </c>
       <c r="B1158" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1159" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1160" t="s">
         <v>1961</v>
@@ -15631,36 +15637,36 @@
         <v>1962</v>
       </c>
       <c r="B1161" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1162" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1163" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1164" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1165" t="s">
         <v>1967</v>
@@ -15679,12 +15685,12 @@
         <v>1970</v>
       </c>
       <c r="B1167" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1168" t="s">
         <v>1972</v>
@@ -15695,12 +15701,12 @@
         <v>1973</v>
       </c>
       <c r="B1169" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1170" t="s">
         <v>1975</v>
@@ -15711,36 +15717,36 @@
         <v>1976</v>
       </c>
       <c r="B1171" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1172" t="s">
-        <v>791</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1173" t="s">
-        <v>1978</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1174" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1175" t="s">
         <v>1981</v>
@@ -15751,20 +15757,20 @@
         <v>1982</v>
       </c>
       <c r="B1176" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1177" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1178" t="s">
         <v>1985</v>
@@ -15786,8 +15792,16 @@
         <v>1989</v>
       </c>
     </row>
+    <row r="1181" spans="1:2">
+      <c r="A1181" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1991</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1180"/>
+  <autoFilter ref="A1:B1181"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1181</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1182</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1994">
   <si>
     <t>en</t>
   </si>
@@ -4775,6 +4775,12 @@
   </si>
   <si>
     <t>Sette peccati capitali</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>L'ombra del Colosso</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -6339,7 +6345,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1181"/>
+  <dimension ref="A1:B1182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13853,28 +13859,28 @@
         <v>1590</v>
       </c>
       <c r="B938" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B939" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B940" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B941" t="s">
         <v>1594</v>
@@ -13901,20 +13907,20 @@
         <v>1599</v>
       </c>
       <c r="B944" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B945" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B946" t="s">
         <v>1602</v>
@@ -13925,20 +13931,20 @@
         <v>1603</v>
       </c>
       <c r="B947" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B948" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B949" t="s">
         <v>1606</v>
@@ -13973,20 +13979,20 @@
         <v>1613</v>
       </c>
       <c r="B953" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B954" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B955" t="s">
         <v>1616</v>
@@ -14045,28 +14051,28 @@
         <v>1629</v>
       </c>
       <c r="B962" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B963" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B964" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B965" t="s">
         <v>1633</v>
@@ -14157,28 +14163,28 @@
         <v>1654</v>
       </c>
       <c r="B976" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B977" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B978" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B979" t="s">
         <v>1658</v>
@@ -14197,36 +14203,36 @@
         <v>1661</v>
       </c>
       <c r="B981" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B982" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B983" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B984" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B985" t="s">
         <v>1666</v>
@@ -14245,12 +14251,12 @@
         <v>1669</v>
       </c>
       <c r="B987" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B988" t="s">
         <v>1671</v>
@@ -14269,12 +14275,12 @@
         <v>1674</v>
       </c>
       <c r="B990" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B991" t="s">
         <v>1676</v>
@@ -14293,12 +14299,12 @@
         <v>1679</v>
       </c>
       <c r="B993" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B994" t="s">
         <v>1681</v>
@@ -14309,12 +14315,12 @@
         <v>1682</v>
       </c>
       <c r="B995" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B996" t="s">
         <v>1684</v>
@@ -14349,20 +14355,20 @@
         <v>1691</v>
       </c>
       <c r="B1000" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1001" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1002" t="s">
         <v>1694</v>
@@ -14373,12 +14379,12 @@
         <v>1695</v>
       </c>
       <c r="B1003" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1004" t="s">
         <v>1697</v>
@@ -14389,28 +14395,28 @@
         <v>1698</v>
       </c>
       <c r="B1005" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1006" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1007" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1008" t="s">
         <v>1702</v>
@@ -14437,36 +14443,36 @@
         <v>1707</v>
       </c>
       <c r="B1011" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1012" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1013" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1014" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1015" t="s">
         <v>1712</v>
@@ -14485,12 +14491,12 @@
         <v>1715</v>
       </c>
       <c r="B1017" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1018" t="s">
         <v>1717</v>
@@ -14517,12 +14523,12 @@
         <v>1722</v>
       </c>
       <c r="B1021" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1022" t="s">
         <v>1724</v>
@@ -14533,76 +14539,76 @@
         <v>1725</v>
       </c>
       <c r="B1023" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1024" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1025" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1026" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1027" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1028" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1029" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1030" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1031" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1032" t="s">
         <v>1735</v>
@@ -14621,12 +14627,12 @@
         <v>1738</v>
       </c>
       <c r="B1034" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1035" t="s">
         <v>1740</v>
@@ -14893,20 +14899,20 @@
         <v>1805</v>
       </c>
       <c r="B1068" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1069" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B1070" t="s">
         <v>1808</v>
@@ -14925,20 +14931,20 @@
         <v>1811</v>
       </c>
       <c r="B1072" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1073" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1074" t="s">
         <v>1814</v>
@@ -14949,12 +14955,12 @@
         <v>1815</v>
       </c>
       <c r="B1075" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1076" t="s">
         <v>1817</v>
@@ -14965,20 +14971,20 @@
         <v>1818</v>
       </c>
       <c r="B1077" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1078" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1079" t="s">
         <v>1821</v>
@@ -14997,12 +15003,12 @@
         <v>1824</v>
       </c>
       <c r="B1081" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1082" t="s">
         <v>1826</v>
@@ -15053,12 +15059,12 @@
         <v>1837</v>
       </c>
       <c r="B1088" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1089" t="s">
         <v>1839</v>
@@ -15069,15 +15075,15 @@
         <v>1840</v>
       </c>
       <c r="B1090" t="s">
-        <v>130</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1091" t="s">
-        <v>1842</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -15101,12 +15107,12 @@
         <v>1847</v>
       </c>
       <c r="B1094" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1095" t="s">
         <v>1849</v>
@@ -15125,12 +15131,12 @@
         <v>1852</v>
       </c>
       <c r="B1097" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="B1098" t="s">
         <v>1854</v>
@@ -15141,20 +15147,20 @@
         <v>1855</v>
       </c>
       <c r="B1099" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="B1100" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1101" t="s">
         <v>1858</v>
@@ -15197,20 +15203,20 @@
         <v>1867</v>
       </c>
       <c r="B1106" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B1107" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B1108" t="s">
         <v>1870</v>
@@ -15365,28 +15371,28 @@
         <v>1907</v>
       </c>
       <c r="B1127" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="B1128" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B1129" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B1130" t="s">
         <v>1911</v>
@@ -15397,12 +15403,12 @@
         <v>1912</v>
       </c>
       <c r="B1131" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1132" t="s">
         <v>1914</v>
@@ -15421,28 +15427,28 @@
         <v>1917</v>
       </c>
       <c r="B1134" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1135" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B1136" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B1137" t="s">
         <v>1921</v>
@@ -15509,12 +15515,12 @@
         <v>1936</v>
       </c>
       <c r="B1145" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="B1146" t="s">
         <v>1938</v>
@@ -15573,28 +15579,28 @@
         <v>1951</v>
       </c>
       <c r="B1153" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B1154" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B1155" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1156" t="s">
         <v>1955</v>
@@ -15621,20 +15627,20 @@
         <v>1960</v>
       </c>
       <c r="B1159" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1160" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1161" t="s">
         <v>1963</v>
@@ -15645,36 +15651,36 @@
         <v>1964</v>
       </c>
       <c r="B1162" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1163" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1164" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1165" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1166" t="s">
         <v>1969</v>
@@ -15693,12 +15699,12 @@
         <v>1972</v>
       </c>
       <c r="B1168" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1169" t="s">
         <v>1974</v>
@@ -15709,12 +15715,12 @@
         <v>1975</v>
       </c>
       <c r="B1170" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1171" t="s">
         <v>1977</v>
@@ -15725,36 +15731,36 @@
         <v>1978</v>
       </c>
       <c r="B1172" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1173" t="s">
-        <v>793</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1174" t="s">
-        <v>1980</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1175" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1176" t="s">
         <v>1983</v>
@@ -15765,20 +15771,20 @@
         <v>1984</v>
       </c>
       <c r="B1177" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1178" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1179" t="s">
         <v>1987</v>
@@ -15800,8 +15806,16 @@
         <v>1991</v>
       </c>
     </row>
+    <row r="1182" spans="1:2">
+      <c r="A1182" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1993</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1181"/>
+  <autoFilter ref="A1:B1182"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1183</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1998">
   <si>
     <t>en</t>
   </si>
@@ -3827,6 +3827,12 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montagne del caos</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -6351,7 +6357,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1183"/>
+  <dimension ref="A1:B1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -12297,36 +12303,36 @@
         <v>1272</v>
       </c>
       <c r="B742" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B743" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B744" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B745" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B746" t="s">
         <v>1277</v>
@@ -12417,12 +12423,12 @@
         <v>1298</v>
       </c>
       <c r="B757" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B758" t="s">
         <v>1300</v>
@@ -12433,20 +12439,20 @@
         <v>1301</v>
       </c>
       <c r="B759" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B760" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B761" t="s">
         <v>1304</v>
@@ -12457,12 +12463,12 @@
         <v>1305</v>
       </c>
       <c r="B762" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B763" t="s">
         <v>1307</v>
@@ -12489,12 +12495,12 @@
         <v>1312</v>
       </c>
       <c r="B766" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B767" t="s">
         <v>1314</v>
@@ -12505,12 +12511,12 @@
         <v>1315</v>
       </c>
       <c r="B768" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B769" t="s">
         <v>1317</v>
@@ -12521,20 +12527,20 @@
         <v>1318</v>
       </c>
       <c r="B770" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B771" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B772" t="s">
         <v>1321</v>
@@ -12601,28 +12607,28 @@
         <v>1336</v>
       </c>
       <c r="B780" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B781" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B782" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B783" t="s">
         <v>1340</v>
@@ -12641,12 +12647,12 @@
         <v>1343</v>
       </c>
       <c r="B785" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B786" t="s">
         <v>1345</v>
@@ -12657,60 +12663,60 @@
         <v>1346</v>
       </c>
       <c r="B787" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B788" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B789" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B790" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B791" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B792" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B793" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B794" t="s">
         <v>1354</v>
@@ -12721,12 +12727,12 @@
         <v>1355</v>
       </c>
       <c r="B795" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B796" t="s">
         <v>1357</v>
@@ -12737,12 +12743,12 @@
         <v>1358</v>
       </c>
       <c r="B797" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B798" t="s">
         <v>1360</v>
@@ -12793,28 +12799,28 @@
         <v>1371</v>
       </c>
       <c r="B804" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B805" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B806" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B807" t="s">
         <v>1375</v>
@@ -12889,12 +12895,12 @@
         <v>1392</v>
       </c>
       <c r="B816" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B817" t="s">
         <v>1394</v>
@@ -12905,12 +12911,12 @@
         <v>1395</v>
       </c>
       <c r="B818" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B819" t="s">
         <v>1397</v>
@@ -12921,12 +12927,12 @@
         <v>1398</v>
       </c>
       <c r="B820" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B821" t="s">
         <v>1400</v>
@@ -12937,12 +12943,12 @@
         <v>1401</v>
       </c>
       <c r="B822" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B823" t="s">
         <v>1403</v>
@@ -12953,23 +12959,23 @@
         <v>1404</v>
       </c>
       <c r="B824" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B825" t="s">
-        <v>789</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B826" t="s">
-        <v>1407</v>
+        <v>789</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -12985,36 +12991,36 @@
         <v>1410</v>
       </c>
       <c r="B828" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B829" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B830" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B831" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B832" t="s">
         <v>1415</v>
@@ -13033,12 +13039,12 @@
         <v>1418</v>
       </c>
       <c r="B834" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B835" t="s">
         <v>1420</v>
@@ -13081,28 +13087,28 @@
         <v>1429</v>
       </c>
       <c r="B840" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B841" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B842" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B843" t="s">
         <v>1433</v>
@@ -13209,52 +13215,52 @@
         <v>1458</v>
       </c>
       <c r="B856" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B857" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B858" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B859" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B860" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B861" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B862" t="s">
         <v>1465</v>
@@ -13265,20 +13271,20 @@
         <v>1466</v>
       </c>
       <c r="B863" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B864" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B865" t="s">
         <v>1469</v>
@@ -13289,12 +13295,12 @@
         <v>1470</v>
       </c>
       <c r="B866" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B867" t="s">
         <v>1472</v>
@@ -13313,12 +13319,12 @@
         <v>1475</v>
       </c>
       <c r="B869" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B870" t="s">
         <v>1477</v>
@@ -13329,12 +13335,12 @@
         <v>1478</v>
       </c>
       <c r="B871" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B872" t="s">
         <v>1480</v>
@@ -13361,20 +13367,20 @@
         <v>1485</v>
       </c>
       <c r="B875" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B876" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B877" t="s">
         <v>1488</v>
@@ -13401,12 +13407,12 @@
         <v>1493</v>
       </c>
       <c r="B880" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B881" t="s">
         <v>1495</v>
@@ -13425,12 +13431,12 @@
         <v>1498</v>
       </c>
       <c r="B883" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B884" t="s">
         <v>1500</v>
@@ -13441,12 +13447,12 @@
         <v>1501</v>
       </c>
       <c r="B885" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B886" t="s">
         <v>1503</v>
@@ -13473,12 +13479,12 @@
         <v>1508</v>
       </c>
       <c r="B889" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B890" t="s">
         <v>1510</v>
@@ -13553,12 +13559,12 @@
         <v>1527</v>
       </c>
       <c r="B899" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B900" t="s">
         <v>1529</v>
@@ -13569,60 +13575,60 @@
         <v>1530</v>
       </c>
       <c r="B901" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B902" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B903" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B904" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B905" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B906" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B907" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B908" t="s">
         <v>1538</v>
@@ -13657,20 +13663,20 @@
         <v>1545</v>
       </c>
       <c r="B912" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B913" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B914" t="s">
         <v>1548</v>
@@ -13713,20 +13719,20 @@
         <v>1557</v>
       </c>
       <c r="B919" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B920" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B921" t="s">
         <v>1560</v>
@@ -13761,12 +13767,12 @@
         <v>1567</v>
       </c>
       <c r="B925" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B926" t="s">
         <v>1569</v>
@@ -13785,12 +13791,12 @@
         <v>1572</v>
       </c>
       <c r="B928" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B929" t="s">
         <v>1574</v>
@@ -13825,12 +13831,12 @@
         <v>1581</v>
       </c>
       <c r="B933" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B934" t="s">
         <v>1583</v>
@@ -13865,28 +13871,28 @@
         <v>1590</v>
       </c>
       <c r="B938" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B939" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B940" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B941" t="s">
         <v>1594</v>
@@ -13913,20 +13919,20 @@
         <v>1599</v>
       </c>
       <c r="B944" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B945" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B946" t="s">
         <v>1602</v>
@@ -13937,20 +13943,20 @@
         <v>1603</v>
       </c>
       <c r="B947" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B948" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B949" t="s">
         <v>1606</v>
@@ -13985,20 +13991,20 @@
         <v>1613</v>
       </c>
       <c r="B953" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B954" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B955" t="s">
         <v>1616</v>
@@ -14057,28 +14063,28 @@
         <v>1629</v>
       </c>
       <c r="B962" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B963" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B964" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B965" t="s">
         <v>1633</v>
@@ -14169,28 +14175,28 @@
         <v>1654</v>
       </c>
       <c r="B976" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B977" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B978" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B979" t="s">
         <v>1658</v>
@@ -14209,36 +14215,36 @@
         <v>1661</v>
       </c>
       <c r="B981" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B982" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B983" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B984" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B985" t="s">
         <v>1666</v>
@@ -14257,12 +14263,12 @@
         <v>1669</v>
       </c>
       <c r="B987" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B988" t="s">
         <v>1671</v>
@@ -14281,12 +14287,12 @@
         <v>1674</v>
       </c>
       <c r="B990" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B991" t="s">
         <v>1676</v>
@@ -14305,12 +14311,12 @@
         <v>1679</v>
       </c>
       <c r="B993" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B994" t="s">
         <v>1681</v>
@@ -14321,12 +14327,12 @@
         <v>1682</v>
       </c>
       <c r="B995" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B996" t="s">
         <v>1684</v>
@@ -14361,20 +14367,20 @@
         <v>1691</v>
       </c>
       <c r="B1000" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1001" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1002" t="s">
         <v>1694</v>
@@ -14385,12 +14391,12 @@
         <v>1695</v>
       </c>
       <c r="B1003" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1004" t="s">
         <v>1697</v>
@@ -14401,28 +14407,28 @@
         <v>1698</v>
       </c>
       <c r="B1005" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1006" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1007" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1008" t="s">
         <v>1702</v>
@@ -14449,36 +14455,36 @@
         <v>1707</v>
       </c>
       <c r="B1011" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="B1012" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1013" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1014" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1015" t="s">
         <v>1712</v>
@@ -14497,12 +14503,12 @@
         <v>1715</v>
       </c>
       <c r="B1017" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="B1018" t="s">
         <v>1717</v>
@@ -14529,12 +14535,12 @@
         <v>1722</v>
       </c>
       <c r="B1021" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="B1022" t="s">
         <v>1724</v>
@@ -14545,76 +14551,76 @@
         <v>1725</v>
       </c>
       <c r="B1023" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1024" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1025" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1026" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1027" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1028" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1029" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1030" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1031" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1032" t="s">
         <v>1735</v>
@@ -14633,12 +14639,12 @@
         <v>1738</v>
       </c>
       <c r="B1034" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1035" t="s">
         <v>1740</v>
@@ -14913,20 +14919,20 @@
         <v>1807</v>
       </c>
       <c r="B1069" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="B1070" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="B1071" t="s">
         <v>1810</v>
@@ -14945,20 +14951,20 @@
         <v>1813</v>
       </c>
       <c r="B1073" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="B1074" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="B1075" t="s">
         <v>1816</v>
@@ -14969,12 +14975,12 @@
         <v>1817</v>
       </c>
       <c r="B1076" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1077" t="s">
         <v>1819</v>
@@ -14985,20 +14991,20 @@
         <v>1820</v>
       </c>
       <c r="B1078" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B1079" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1080" t="s">
         <v>1823</v>
@@ -15017,12 +15023,12 @@
         <v>1826</v>
       </c>
       <c r="B1082" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1083" t="s">
         <v>1828</v>
@@ -15073,12 +15079,12 @@
         <v>1839</v>
       </c>
       <c r="B1089" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1090" t="s">
         <v>1841</v>
@@ -15089,15 +15095,15 @@
         <v>1842</v>
       </c>
       <c r="B1091" t="s">
-        <v>130</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1092" t="s">
-        <v>1844</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -15121,12 +15127,12 @@
         <v>1849</v>
       </c>
       <c r="B1095" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="B1096" t="s">
         <v>1851</v>
@@ -15145,12 +15151,12 @@
         <v>1854</v>
       </c>
       <c r="B1098" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1099" t="s">
         <v>1856</v>
@@ -15161,20 +15167,20 @@
         <v>1857</v>
       </c>
       <c r="B1100" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="B1101" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1102" t="s">
         <v>1860</v>
@@ -15217,20 +15223,20 @@
         <v>1869</v>
       </c>
       <c r="B1107" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="B1108" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B1109" t="s">
         <v>1872</v>
@@ -15385,28 +15391,28 @@
         <v>1909</v>
       </c>
       <c r="B1128" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B1129" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="B1130" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B1131" t="s">
         <v>1913</v>
@@ -15417,12 +15423,12 @@
         <v>1914</v>
       </c>
       <c r="B1132" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B1133" t="s">
         <v>1916</v>
@@ -15441,28 +15447,28 @@
         <v>1919</v>
       </c>
       <c r="B1135" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B1136" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B1137" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B1138" t="s">
         <v>1923</v>
@@ -15529,12 +15535,12 @@
         <v>1938</v>
       </c>
       <c r="B1146" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="B1147" t="s">
         <v>1940</v>
@@ -15593,28 +15599,28 @@
         <v>1953</v>
       </c>
       <c r="B1154" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1155" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="B1156" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1157" t="s">
         <v>1957</v>
@@ -15641,20 +15647,20 @@
         <v>1962</v>
       </c>
       <c r="B1160" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="B1161" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="B1162" t="s">
         <v>1965</v>
@@ -15665,36 +15671,36 @@
         <v>1966</v>
       </c>
       <c r="B1163" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1164" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1165" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1166" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1167" t="s">
         <v>1971</v>
@@ -15713,12 +15719,12 @@
         <v>1974</v>
       </c>
       <c r="B1169" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1170" t="s">
         <v>1976</v>
@@ -15729,12 +15735,12 @@
         <v>1977</v>
       </c>
       <c r="B1171" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="B1172" t="s">
         <v>1979</v>
@@ -15753,36 +15759,36 @@
         <v>1982</v>
       </c>
       <c r="B1174" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1175" t="s">
-        <v>791</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1176" t="s">
-        <v>1984</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1177" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1178" t="s">
         <v>1987</v>
@@ -15793,20 +15799,20 @@
         <v>1988</v>
       </c>
       <c r="B1179" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1180" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1181" t="s">
         <v>1991</v>
@@ -15828,8 +15834,16 @@
         <v>1995</v>
       </c>
     </row>
+    <row r="1184" spans="1:2">
+      <c r="A1184" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1997</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1183"/>
+  <autoFilter ref="A1:B1184"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1184</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2000">
   <si>
     <t>en</t>
   </si>
@@ -2159,6 +2159,12 @@
   </si>
   <si>
     <t>Carattere (Arcobaleno)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Carattere (Pietra arenaria rossa scalpellata)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -6357,7 +6363,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1184"/>
+  <dimension ref="A1:B1185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9807,36 +9813,36 @@
         <v>742</v>
       </c>
       <c r="B430" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B431" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B432" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B433" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B434" t="s">
         <v>747</v>
@@ -9911,12 +9917,12 @@
         <v>764</v>
       </c>
       <c r="B443" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B444" t="s">
         <v>766</v>
@@ -9927,12 +9933,12 @@
         <v>767</v>
       </c>
       <c r="B445" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B446" t="s">
         <v>769</v>
@@ -9943,12 +9949,12 @@
         <v>770</v>
       </c>
       <c r="B447" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B448" t="s">
         <v>772</v>
@@ -9983,12 +9989,12 @@
         <v>779</v>
       </c>
       <c r="B452" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B453" t="s">
         <v>781</v>
@@ -10063,12 +10069,12 @@
         <v>798</v>
       </c>
       <c r="B462" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B463" t="s">
         <v>800</v>
@@ -10079,20 +10085,20 @@
         <v>801</v>
       </c>
       <c r="B464" t="s">
-        <v>523</v>
+        <v>802</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B465" t="s">
-        <v>802</v>
+        <v>523</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B466" t="s">
         <v>804</v>
@@ -10127,36 +10133,36 @@
         <v>811</v>
       </c>
       <c r="B470" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B471" t="s">
-        <v>523</v>
+        <v>813</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B472" t="s">
-        <v>813</v>
+        <v>523</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B473" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B474" t="s">
         <v>816</v>
@@ -10191,12 +10197,12 @@
         <v>823</v>
       </c>
       <c r="B478" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B479" t="s">
         <v>825</v>
@@ -10207,12 +10213,12 @@
         <v>826</v>
       </c>
       <c r="B480" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B481" t="s">
         <v>828</v>
@@ -10231,12 +10237,12 @@
         <v>831</v>
       </c>
       <c r="B483" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B484" t="s">
         <v>833</v>
@@ -10247,20 +10253,20 @@
         <v>834</v>
       </c>
       <c r="B485" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B486" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B487" t="s">
         <v>837</v>
@@ -10271,12 +10277,12 @@
         <v>838</v>
       </c>
       <c r="B488" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B489" t="s">
         <v>840</v>
@@ -10439,12 +10445,12 @@
         <v>879</v>
       </c>
       <c r="B509" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B510" t="s">
         <v>881</v>
@@ -10455,12 +10461,12 @@
         <v>882</v>
       </c>
       <c r="B511" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B512" t="s">
         <v>884</v>
@@ -10471,12 +10477,12 @@
         <v>885</v>
       </c>
       <c r="B513" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B514" t="s">
         <v>887</v>
@@ -10511,12 +10517,12 @@
         <v>894</v>
       </c>
       <c r="B518" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B519" t="s">
         <v>896</v>
@@ -10591,15 +10597,15 @@
         <v>913</v>
       </c>
       <c r="B528" t="s">
-        <v>521</v>
+        <v>914</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B529" t="s">
-        <v>915</v>
+        <v>521</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -10631,12 +10637,12 @@
         <v>922</v>
       </c>
       <c r="B533" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B534" t="s">
         <v>924</v>
@@ -10679,12 +10685,12 @@
         <v>933</v>
       </c>
       <c r="B539" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B540" t="s">
         <v>935</v>
@@ -10719,20 +10725,20 @@
         <v>942</v>
       </c>
       <c r="B544" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B545" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B546" t="s">
         <v>945</v>
@@ -10743,12 +10749,12 @@
         <v>946</v>
       </c>
       <c r="B547" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B548" t="s">
         <v>948</v>
@@ -10759,12 +10765,12 @@
         <v>949</v>
       </c>
       <c r="B549" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B550" t="s">
         <v>951</v>
@@ -10791,12 +10797,12 @@
         <v>956</v>
       </c>
       <c r="B553" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B554" t="s">
         <v>958</v>
@@ -10863,20 +10869,20 @@
         <v>973</v>
       </c>
       <c r="B562" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B563" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B564" t="s">
         <v>976</v>
@@ -10919,12 +10925,12 @@
         <v>985</v>
       </c>
       <c r="B569" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B570" t="s">
         <v>987</v>
@@ -10951,12 +10957,12 @@
         <v>992</v>
       </c>
       <c r="B573" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B574" t="s">
         <v>994</v>
@@ -10975,20 +10981,20 @@
         <v>997</v>
       </c>
       <c r="B576" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B577" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B578" t="s">
         <v>1000</v>
@@ -11007,12 +11013,12 @@
         <v>1003</v>
       </c>
       <c r="B580" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B581" t="s">
         <v>1005</v>
@@ -11095,12 +11101,12 @@
         <v>1024</v>
       </c>
       <c r="B591" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B592" t="s">
         <v>1026</v>
@@ -11167,12 +11173,12 @@
         <v>1041</v>
       </c>
       <c r="B600" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B601" t="s">
         <v>1043</v>
@@ -11191,12 +11197,12 @@
         <v>1046</v>
       </c>
       <c r="B603" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B604" t="s">
         <v>1048</v>
@@ -11247,20 +11253,20 @@
         <v>1059</v>
       </c>
       <c r="B610" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B611" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B612" t="s">
         <v>1062</v>
@@ -11271,20 +11277,20 @@
         <v>1063</v>
       </c>
       <c r="B613" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B614" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B615" t="s">
         <v>1066</v>
@@ -11343,12 +11349,12 @@
         <v>1079</v>
       </c>
       <c r="B622" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B623" t="s">
         <v>1081</v>
@@ -11359,20 +11365,20 @@
         <v>1082</v>
       </c>
       <c r="B624" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B625" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B626" t="s">
         <v>1085</v>
@@ -11383,92 +11389,92 @@
         <v>1086</v>
       </c>
       <c r="B627" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B628" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="B629" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B630" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B631" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B632" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B633" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B634" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B635" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B636" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B637" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B638" t="s">
         <v>1098</v>
@@ -11479,36 +11485,36 @@
         <v>1099</v>
       </c>
       <c r="B639" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B640" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B641" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B642" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B643" t="s">
         <v>1104</v>
@@ -11543,12 +11549,12 @@
         <v>1111</v>
       </c>
       <c r="B647" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B648" t="s">
         <v>1113</v>
@@ -11559,12 +11565,12 @@
         <v>1114</v>
       </c>
       <c r="B649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B650" t="s">
         <v>1116</v>
@@ -11575,12 +11581,12 @@
         <v>1117</v>
       </c>
       <c r="B651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B652" t="s">
         <v>1119</v>
@@ -11599,20 +11605,20 @@
         <v>1122</v>
       </c>
       <c r="B654" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B655" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B656" t="s">
         <v>1125</v>
@@ -11671,28 +11677,28 @@
         <v>1138</v>
       </c>
       <c r="B663" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B664" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B665" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B666" t="s">
         <v>1142</v>
@@ -11751,12 +11757,12 @@
         <v>1155</v>
       </c>
       <c r="B673" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B674" t="s">
         <v>1157</v>
@@ -11775,12 +11781,12 @@
         <v>1160</v>
       </c>
       <c r="B676" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B677" t="s">
         <v>1162</v>
@@ -11807,12 +11813,12 @@
         <v>1167</v>
       </c>
       <c r="B680" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B681" t="s">
         <v>1169</v>
@@ -11903,12 +11909,12 @@
         <v>1190</v>
       </c>
       <c r="B692" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B693" t="s">
         <v>1192</v>
@@ -11951,12 +11957,12 @@
         <v>1201</v>
       </c>
       <c r="B698" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B699" t="s">
         <v>1203</v>
@@ -11967,20 +11973,20 @@
         <v>1204</v>
       </c>
       <c r="B700" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B701" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B702" t="s">
         <v>1207</v>
@@ -11991,36 +11997,36 @@
         <v>1208</v>
       </c>
       <c r="B703" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B704" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B705" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B706" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B707" t="s">
         <v>1213</v>
@@ -12031,20 +12037,20 @@
         <v>1214</v>
       </c>
       <c r="B708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B709" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B710" t="s">
         <v>1217</v>
@@ -12151,12 +12157,12 @@
         <v>1242</v>
       </c>
       <c r="B723" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B724" t="s">
         <v>1244</v>
@@ -12199,12 +12205,12 @@
         <v>1253</v>
       </c>
       <c r="B729" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B730" t="s">
         <v>1255</v>
@@ -12231,20 +12237,20 @@
         <v>1260</v>
       </c>
       <c r="B733" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B734" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B735" t="s">
         <v>1263</v>
@@ -12255,12 +12261,12 @@
         <v>1264</v>
       </c>
       <c r="B736" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B737" t="s">
         <v>1266</v>
@@ -12271,28 +12277,28 @@
         <v>1267</v>
       </c>
       <c r="B738" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B739" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B740" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B741" t="s">
         <v>1271</v>
@@ -12311,36 +12317,36 @@
         <v>1274</v>
       </c>
       <c r="B743" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B744" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B745" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B746" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B747" t="s">
         <v>1279</v>
@@ -12431,12 +12437,12 @@
         <v>1300</v>
       </c>
       <c r="B758" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B759" t="s">
         <v>1302</v>
@@ -12447,20 +12453,20 @@
         <v>1303</v>
       </c>
       <c r="B760" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B761" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B762" t="s">
         <v>1306</v>
@@ -12471,12 +12477,12 @@
         <v>1307</v>
       </c>
       <c r="B763" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B764" t="s">
         <v>1309</v>
@@ -12503,12 +12509,12 @@
         <v>1314</v>
       </c>
       <c r="B767" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B768" t="s">
         <v>1316</v>
@@ -12519,12 +12525,12 @@
         <v>1317</v>
       </c>
       <c r="B769" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B770" t="s">
         <v>1319</v>
@@ -12535,20 +12541,20 @@
         <v>1320</v>
       </c>
       <c r="B771" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B772" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B773" t="s">
         <v>1323</v>
@@ -12615,28 +12621,28 @@
         <v>1338</v>
       </c>
       <c r="B781" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B782" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B783" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B784" t="s">
         <v>1342</v>
@@ -12655,12 +12661,12 @@
         <v>1345</v>
       </c>
       <c r="B786" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B787" t="s">
         <v>1347</v>
@@ -12671,60 +12677,60 @@
         <v>1348</v>
       </c>
       <c r="B788" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B789" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B790" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B791" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B792" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B793" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B794" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B795" t="s">
         <v>1356</v>
@@ -12735,12 +12741,12 @@
         <v>1357</v>
       </c>
       <c r="B796" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B797" t="s">
         <v>1359</v>
@@ -12751,12 +12757,12 @@
         <v>1360</v>
       </c>
       <c r="B798" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B799" t="s">
         <v>1362</v>
@@ -12807,28 +12813,28 @@
         <v>1373</v>
       </c>
       <c r="B805" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B806" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B807" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B808" t="s">
         <v>1377</v>
@@ -12903,12 +12909,12 @@
         <v>1394</v>
       </c>
       <c r="B817" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B818" t="s">
         <v>1396</v>
@@ -12919,12 +12925,12 @@
         <v>1397</v>
       </c>
       <c r="B819" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B820" t="s">
         <v>1399</v>
@@ -12935,12 +12941,12 @@
         <v>1400</v>
       </c>
       <c r="B821" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B822" t="s">
         <v>1402</v>
@@ -12951,12 +12957,12 @@
         <v>1403</v>
       </c>
       <c r="B823" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B824" t="s">
         <v>1405</v>
@@ -12967,23 +12973,23 @@
         <v>1406</v>
       </c>
       <c r="B825" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B826" t="s">
-        <v>789</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B827" t="s">
-        <v>1409</v>
+        <v>791</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -12999,36 +13005,36 @@
         <v>1412</v>
       </c>
       <c r="B829" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B830" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B831" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B832" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B833" t="s">
         <v>1417</v>
@@ -13047,12 +13053,12 @@
         <v>1420</v>
       </c>
       <c r="B835" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B836" t="s">
         <v>1422</v>
@@ -13095,28 +13101,28 @@
         <v>1431</v>
       </c>
       <c r="B841" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B842" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B843" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B844" t="s">
         <v>1435</v>
@@ -13223,52 +13229,52 @@
         <v>1460</v>
       </c>
       <c r="B857" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B858" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B859" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B860" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B861" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B862" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B863" t="s">
         <v>1467</v>
@@ -13279,20 +13285,20 @@
         <v>1468</v>
       </c>
       <c r="B864" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B865" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B866" t="s">
         <v>1471</v>
@@ -13303,12 +13309,12 @@
         <v>1472</v>
       </c>
       <c r="B867" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B868" t="s">
         <v>1474</v>
@@ -13327,12 +13333,12 @@
         <v>1477</v>
       </c>
       <c r="B870" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B871" t="s">
         <v>1479</v>
@@ -13343,12 +13349,12 @@
         <v>1480</v>
       </c>
       <c r="B872" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B873" t="s">
         <v>1482</v>
@@ -13375,20 +13381,20 @@
         <v>1487</v>
       </c>
       <c r="B876" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B877" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B878" t="s">
         <v>1490</v>
@@ -13415,12 +13421,12 @@
         <v>1495</v>
       </c>
       <c r="B881" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B882" t="s">
         <v>1497</v>
@@ -13439,12 +13445,12 @@
         <v>1500</v>
       </c>
       <c r="B884" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B885" t="s">
         <v>1502</v>
@@ -13455,12 +13461,12 @@
         <v>1503</v>
       </c>
       <c r="B886" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B887" t="s">
         <v>1505</v>
@@ -13487,12 +13493,12 @@
         <v>1510</v>
       </c>
       <c r="B890" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B891" t="s">
         <v>1512</v>
@@ -13567,12 +13573,12 @@
         <v>1529</v>
       </c>
       <c r="B900" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B901" t="s">
         <v>1531</v>
@@ -13583,60 +13589,60 @@
         <v>1532</v>
       </c>
       <c r="B902" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B903" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B904" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B905" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B906" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B907" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B908" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B909" t="s">
         <v>1540</v>
@@ -13671,20 +13677,20 @@
         <v>1547</v>
       </c>
       <c r="B913" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B914" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B915" t="s">
         <v>1550</v>
@@ -13727,20 +13733,20 @@
         <v>1559</v>
       </c>
       <c r="B920" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B921" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B922" t="s">
         <v>1562</v>
@@ -13775,12 +13781,12 @@
         <v>1569</v>
       </c>
       <c r="B926" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B927" t="s">
         <v>1571</v>
@@ -13799,12 +13805,12 @@
         <v>1574</v>
       </c>
       <c r="B929" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B930" t="s">
         <v>1576</v>
@@ -13839,12 +13845,12 @@
         <v>1583</v>
       </c>
       <c r="B934" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B935" t="s">
         <v>1585</v>
@@ -13879,28 +13885,28 @@
         <v>1592</v>
       </c>
       <c r="B939" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B940" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B941" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B942" t="s">
         <v>1596</v>
@@ -13927,20 +13933,20 @@
         <v>1601</v>
       </c>
       <c r="B945" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B946" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B947" t="s">
         <v>1604</v>
@@ -13951,20 +13957,20 @@
         <v>1605</v>
       </c>
       <c r="B948" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B949" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B950" t="s">
         <v>1608</v>
@@ -13999,20 +14005,20 @@
         <v>1615</v>
       </c>
       <c r="B954" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B955" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B956" t="s">
         <v>1618</v>
@@ -14071,28 +14077,28 @@
         <v>1631</v>
       </c>
       <c r="B963" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B964" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B965" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B966" t="s">
         <v>1635</v>
@@ -14183,28 +14189,28 @@
         <v>1656</v>
       </c>
       <c r="B977" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B978" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B979" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B980" t="s">
         <v>1660</v>
@@ -14223,36 +14229,36 @@
         <v>1663</v>
       </c>
       <c r="B982" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B983" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B984" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B985" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B986" t="s">
         <v>1668</v>
@@ -14271,12 +14277,12 @@
         <v>1671</v>
       </c>
       <c r="B988" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B989" t="s">
         <v>1673</v>
@@ -14295,12 +14301,12 @@
         <v>1676</v>
       </c>
       <c r="B991" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B992" t="s">
         <v>1678</v>
@@ -14319,12 +14325,12 @@
         <v>1681</v>
       </c>
       <c r="B994" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B995" t="s">
         <v>1683</v>
@@ -14335,12 +14341,12 @@
         <v>1684</v>
       </c>
       <c r="B996" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B997" t="s">
         <v>1686</v>
@@ -14375,20 +14381,20 @@
         <v>1693</v>
       </c>
       <c r="B1001" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1002" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1003" t="s">
         <v>1696</v>
@@ -14399,12 +14405,12 @@
         <v>1697</v>
       </c>
       <c r="B1004" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1005" t="s">
         <v>1699</v>
@@ -14415,28 +14421,28 @@
         <v>1700</v>
       </c>
       <c r="B1006" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1007" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1008" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1009" t="s">
         <v>1704</v>
@@ -14463,36 +14469,36 @@
         <v>1709</v>
       </c>
       <c r="B1012" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1013" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1014" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1015" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1016" t="s">
         <v>1714</v>
@@ -14511,12 +14517,12 @@
         <v>1717</v>
       </c>
       <c r="B1018" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B1019" t="s">
         <v>1719</v>
@@ -14543,12 +14549,12 @@
         <v>1724</v>
       </c>
       <c r="B1022" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1023" t="s">
         <v>1726</v>
@@ -14559,76 +14565,76 @@
         <v>1727</v>
       </c>
       <c r="B1024" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1025" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="B1026" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1027" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1028" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1029" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1030" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1031" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1032" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1033" t="s">
         <v>1737</v>
@@ -14647,12 +14653,12 @@
         <v>1740</v>
       </c>
       <c r="B1035" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1036" t="s">
         <v>1742</v>
@@ -14927,20 +14933,20 @@
         <v>1809</v>
       </c>
       <c r="B1070" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="B1071" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="B1072" t="s">
         <v>1812</v>
@@ -14959,20 +14965,20 @@
         <v>1815</v>
       </c>
       <c r="B1074" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="B1075" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B1076" t="s">
         <v>1818</v>
@@ -14983,12 +14989,12 @@
         <v>1819</v>
       </c>
       <c r="B1077" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="B1078" t="s">
         <v>1821</v>
@@ -14999,20 +15005,20 @@
         <v>1822</v>
       </c>
       <c r="B1079" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="B1080" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1081" t="s">
         <v>1825</v>
@@ -15031,12 +15037,12 @@
         <v>1828</v>
       </c>
       <c r="B1083" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1084" t="s">
         <v>1830</v>
@@ -15087,12 +15093,12 @@
         <v>1841</v>
       </c>
       <c r="B1090" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1091" t="s">
         <v>1843</v>
@@ -15103,15 +15109,15 @@
         <v>1844</v>
       </c>
       <c r="B1092" t="s">
-        <v>130</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1093" t="s">
-        <v>1846</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
@@ -15135,12 +15141,12 @@
         <v>1851</v>
       </c>
       <c r="B1096" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1097" t="s">
         <v>1853</v>
@@ -15159,12 +15165,12 @@
         <v>1856</v>
       </c>
       <c r="B1099" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="B1100" t="s">
         <v>1858</v>
@@ -15175,20 +15181,20 @@
         <v>1859</v>
       </c>
       <c r="B1101" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="B1102" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1103" t="s">
         <v>1862</v>
@@ -15231,20 +15237,20 @@
         <v>1871</v>
       </c>
       <c r="B1108" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="B1109" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B1110" t="s">
         <v>1874</v>
@@ -15399,28 +15405,28 @@
         <v>1911</v>
       </c>
       <c r="B1129" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="B1130" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="B1131" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1132" t="s">
         <v>1915</v>
@@ -15431,12 +15437,12 @@
         <v>1916</v>
       </c>
       <c r="B1133" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1134" t="s">
         <v>1918</v>
@@ -15455,28 +15461,28 @@
         <v>1921</v>
       </c>
       <c r="B1136" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B1137" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B1138" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B1139" t="s">
         <v>1925</v>
@@ -15543,12 +15549,12 @@
         <v>1940</v>
       </c>
       <c r="B1147" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B1148" t="s">
         <v>1942</v>
@@ -15607,28 +15613,28 @@
         <v>1955</v>
       </c>
       <c r="B1155" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1156" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="B1157" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1158" t="s">
         <v>1959</v>
@@ -15655,20 +15661,20 @@
         <v>1964</v>
       </c>
       <c r="B1161" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="B1162" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B1163" t="s">
         <v>1967</v>
@@ -15679,36 +15685,36 @@
         <v>1968</v>
       </c>
       <c r="B1164" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1165" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1166" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1167" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1168" t="s">
         <v>1973</v>
@@ -15727,12 +15733,12 @@
         <v>1976</v>
       </c>
       <c r="B1170" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B1171" t="s">
         <v>1978</v>
@@ -15743,12 +15749,12 @@
         <v>1979</v>
       </c>
       <c r="B1172" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B1173" t="s">
         <v>1981</v>
@@ -15767,36 +15773,36 @@
         <v>1984</v>
       </c>
       <c r="B1175" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1176" t="s">
-        <v>791</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B1177" t="s">
-        <v>1986</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1178" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1179" t="s">
         <v>1989</v>
@@ -15807,20 +15813,20 @@
         <v>1990</v>
       </c>
       <c r="B1180" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1181" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1182" t="s">
         <v>1993</v>
@@ -15842,8 +15848,16 @@
         <v>1997</v>
       </c>
     </row>
+    <row r="1185" spans="1:2">
+      <c r="A1185" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1184"/>
+  <autoFilter ref="A1:B1185"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2002">
   <si>
     <t>en</t>
   </si>
@@ -5591,6 +5591,12 @@
   </si>
   <si>
     <t>Foresta crepuscolare</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Il paese delle meraviglie contorto</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -6363,7 +6369,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1185"/>
+  <dimension ref="A1:B1186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15173,12 +15179,12 @@
         <v>1858</v>
       </c>
       <c r="B1100" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B1101" t="s">
         <v>1860</v>
@@ -15189,20 +15195,20 @@
         <v>1861</v>
       </c>
       <c r="B1102" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B1103" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="B1104" t="s">
         <v>1864</v>
@@ -15245,20 +15251,20 @@
         <v>1873</v>
       </c>
       <c r="B1109" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B1110" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B1111" t="s">
         <v>1876</v>
@@ -15413,28 +15419,28 @@
         <v>1913</v>
       </c>
       <c r="B1130" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B1131" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="B1132" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1133" t="s">
         <v>1917</v>
@@ -15445,12 +15451,12 @@
         <v>1918</v>
       </c>
       <c r="B1134" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="B1135" t="s">
         <v>1920</v>
@@ -15469,28 +15475,28 @@
         <v>1923</v>
       </c>
       <c r="B1137" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B1138" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B1139" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1140" t="s">
         <v>1927</v>
@@ -15557,12 +15563,12 @@
         <v>1942</v>
       </c>
       <c r="B1148" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="B1149" t="s">
         <v>1944</v>
@@ -15621,28 +15627,28 @@
         <v>1957</v>
       </c>
       <c r="B1156" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1157" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="B1158" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1159" t="s">
         <v>1961</v>
@@ -15669,20 +15675,20 @@
         <v>1966</v>
       </c>
       <c r="B1162" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B1163" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="B1164" t="s">
         <v>1969</v>
@@ -15693,36 +15699,36 @@
         <v>1970</v>
       </c>
       <c r="B1165" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="B1166" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B1167" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1168" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1169" t="s">
         <v>1975</v>
@@ -15741,12 +15747,12 @@
         <v>1978</v>
       </c>
       <c r="B1171" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1172" t="s">
         <v>1980</v>
@@ -15757,12 +15763,12 @@
         <v>1981</v>
       </c>
       <c r="B1173" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B1174" t="s">
         <v>1983</v>
@@ -15781,36 +15787,36 @@
         <v>1986</v>
       </c>
       <c r="B1176" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
       <c r="A1177" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B1177" t="s">
-        <v>793</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B1178" t="s">
-        <v>1988</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1179" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1180" t="s">
         <v>1991</v>
@@ -15821,20 +15827,20 @@
         <v>1992</v>
       </c>
       <c r="B1181" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1182" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1183" t="s">
         <v>1995</v>
@@ -15856,8 +15862,16 @@
         <v>1999</v>
       </c>
     </row>
+    <row r="1186" spans="1:2">
+      <c r="A1186" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>2001</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1185"/>
+  <autoFilter ref="A1:B1186"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2004">
   <si>
     <t>en</t>
   </si>
@@ -3047,6 +3047,12 @@
   </si>
   <si>
     <t>Ipixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Tag Hypixel (Mutazioni)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -6369,7 +6375,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1186"/>
+  <dimension ref="A1:B1187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11115,12 +11121,12 @@
         <v>1026</v>
       </c>
       <c r="B592" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B593" t="s">
         <v>1028</v>
@@ -11187,12 +11193,12 @@
         <v>1043</v>
       </c>
       <c r="B601" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B602" t="s">
         <v>1045</v>
@@ -11211,12 +11217,12 @@
         <v>1048</v>
       </c>
       <c r="B604" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B605" t="s">
         <v>1050</v>
@@ -11267,20 +11273,20 @@
         <v>1061</v>
       </c>
       <c r="B611" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B612" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B613" t="s">
         <v>1064</v>
@@ -11291,20 +11297,20 @@
         <v>1065</v>
       </c>
       <c r="B614" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B615" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B616" t="s">
         <v>1068</v>
@@ -11363,12 +11369,12 @@
         <v>1081</v>
       </c>
       <c r="B623" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B624" t="s">
         <v>1083</v>
@@ -11379,20 +11385,20 @@
         <v>1084</v>
       </c>
       <c r="B625" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B626" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B627" t="s">
         <v>1087</v>
@@ -11403,92 +11409,92 @@
         <v>1088</v>
       </c>
       <c r="B628" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B629" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B630" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B631" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B632" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B633" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B634" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B635" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B636" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B637" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B638" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B639" t="s">
         <v>1100</v>
@@ -11499,36 +11505,36 @@
         <v>1101</v>
       </c>
       <c r="B640" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B641" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B642" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B643" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B644" t="s">
         <v>1106</v>
@@ -11563,12 +11569,12 @@
         <v>1113</v>
       </c>
       <c r="B648" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B649" t="s">
         <v>1115</v>
@@ -11579,12 +11585,12 @@
         <v>1116</v>
       </c>
       <c r="B650" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B651" t="s">
         <v>1118</v>
@@ -11595,12 +11601,12 @@
         <v>1119</v>
       </c>
       <c r="B652" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B653" t="s">
         <v>1121</v>
@@ -11619,20 +11625,20 @@
         <v>1124</v>
       </c>
       <c r="B655" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B656" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B657" t="s">
         <v>1127</v>
@@ -11691,28 +11697,28 @@
         <v>1140</v>
       </c>
       <c r="B664" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B665" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B666" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B667" t="s">
         <v>1144</v>
@@ -11771,12 +11777,12 @@
         <v>1157</v>
       </c>
       <c r="B674" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B675" t="s">
         <v>1159</v>
@@ -11795,12 +11801,12 @@
         <v>1162</v>
       </c>
       <c r="B677" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B678" t="s">
         <v>1164</v>
@@ -11827,12 +11833,12 @@
         <v>1169</v>
       </c>
       <c r="B681" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B682" t="s">
         <v>1171</v>
@@ -11923,12 +11929,12 @@
         <v>1192</v>
       </c>
       <c r="B693" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B694" t="s">
         <v>1194</v>
@@ -11971,12 +11977,12 @@
         <v>1203</v>
       </c>
       <c r="B699" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B700" t="s">
         <v>1205</v>
@@ -11987,20 +11993,20 @@
         <v>1206</v>
       </c>
       <c r="B701" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B702" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B703" t="s">
         <v>1209</v>
@@ -12011,36 +12017,36 @@
         <v>1210</v>
       </c>
       <c r="B704" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B705" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B706" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B707" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B708" t="s">
         <v>1215</v>
@@ -12051,20 +12057,20 @@
         <v>1216</v>
       </c>
       <c r="B709" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B710" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B711" t="s">
         <v>1219</v>
@@ -12171,12 +12177,12 @@
         <v>1244</v>
       </c>
       <c r="B724" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B725" t="s">
         <v>1246</v>
@@ -12219,12 +12225,12 @@
         <v>1255</v>
       </c>
       <c r="B730" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B731" t="s">
         <v>1257</v>
@@ -12251,20 +12257,20 @@
         <v>1262</v>
       </c>
       <c r="B734" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B735" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B736" t="s">
         <v>1265</v>
@@ -12275,12 +12281,12 @@
         <v>1266</v>
       </c>
       <c r="B737" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B738" t="s">
         <v>1268</v>
@@ -12291,28 +12297,28 @@
         <v>1269</v>
       </c>
       <c r="B739" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B740" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B741" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B742" t="s">
         <v>1273</v>
@@ -12331,36 +12337,36 @@
         <v>1276</v>
       </c>
       <c r="B744" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B745" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B746" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B747" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B748" t="s">
         <v>1281</v>
@@ -12451,12 +12457,12 @@
         <v>1302</v>
       </c>
       <c r="B759" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B760" t="s">
         <v>1304</v>
@@ -12467,20 +12473,20 @@
         <v>1305</v>
       </c>
       <c r="B761" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B762" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B763" t="s">
         <v>1308</v>
@@ -12491,12 +12497,12 @@
         <v>1309</v>
       </c>
       <c r="B764" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B765" t="s">
         <v>1311</v>
@@ -12523,12 +12529,12 @@
         <v>1316</v>
       </c>
       <c r="B768" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B769" t="s">
         <v>1318</v>
@@ -12539,12 +12545,12 @@
         <v>1319</v>
       </c>
       <c r="B770" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B771" t="s">
         <v>1321</v>
@@ -12555,20 +12561,20 @@
         <v>1322</v>
       </c>
       <c r="B772" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B773" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B774" t="s">
         <v>1325</v>
@@ -12635,28 +12641,28 @@
         <v>1340</v>
       </c>
       <c r="B782" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B783" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B784" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B785" t="s">
         <v>1344</v>
@@ -12675,12 +12681,12 @@
         <v>1347</v>
       </c>
       <c r="B787" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B788" t="s">
         <v>1349</v>
@@ -12691,60 +12697,60 @@
         <v>1350</v>
       </c>
       <c r="B789" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B790" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B791" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B792" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B793" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B794" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B795" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B796" t="s">
         <v>1358</v>
@@ -12755,12 +12761,12 @@
         <v>1359</v>
       </c>
       <c r="B797" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B798" t="s">
         <v>1361</v>
@@ -12771,12 +12777,12 @@
         <v>1362</v>
       </c>
       <c r="B799" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B800" t="s">
         <v>1364</v>
@@ -12827,28 +12833,28 @@
         <v>1375</v>
       </c>
       <c r="B806" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B807" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B808" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B809" t="s">
         <v>1379</v>
@@ -12923,12 +12929,12 @@
         <v>1396</v>
       </c>
       <c r="B818" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B819" t="s">
         <v>1398</v>
@@ -12939,12 +12945,12 @@
         <v>1399</v>
       </c>
       <c r="B820" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B821" t="s">
         <v>1401</v>
@@ -12955,12 +12961,12 @@
         <v>1402</v>
       </c>
       <c r="B822" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B823" t="s">
         <v>1404</v>
@@ -12971,12 +12977,12 @@
         <v>1405</v>
       </c>
       <c r="B824" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B825" t="s">
         <v>1407</v>
@@ -12987,23 +12993,23 @@
         <v>1408</v>
       </c>
       <c r="B826" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B827" t="s">
-        <v>791</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B828" t="s">
-        <v>1411</v>
+        <v>791</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -13019,36 +13025,36 @@
         <v>1414</v>
       </c>
       <c r="B830" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B831" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B832" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B833" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B834" t="s">
         <v>1419</v>
@@ -13067,12 +13073,12 @@
         <v>1422</v>
       </c>
       <c r="B836" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B837" t="s">
         <v>1424</v>
@@ -13115,28 +13121,28 @@
         <v>1433</v>
       </c>
       <c r="B842" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B843" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B844" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B845" t="s">
         <v>1437</v>
@@ -13243,52 +13249,52 @@
         <v>1462</v>
       </c>
       <c r="B858" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B859" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B860" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B861" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B862" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B863" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B864" t="s">
         <v>1469</v>
@@ -13299,20 +13305,20 @@
         <v>1470</v>
       </c>
       <c r="B865" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B866" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B867" t="s">
         <v>1473</v>
@@ -13323,12 +13329,12 @@
         <v>1474</v>
       </c>
       <c r="B868" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B869" t="s">
         <v>1476</v>
@@ -13347,12 +13353,12 @@
         <v>1479</v>
       </c>
       <c r="B871" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B872" t="s">
         <v>1481</v>
@@ -13363,12 +13369,12 @@
         <v>1482</v>
       </c>
       <c r="B873" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B874" t="s">
         <v>1484</v>
@@ -13395,20 +13401,20 @@
         <v>1489</v>
       </c>
       <c r="B877" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B878" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B879" t="s">
         <v>1492</v>
@@ -13435,12 +13441,12 @@
         <v>1497</v>
       </c>
       <c r="B882" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B883" t="s">
         <v>1499</v>
@@ -13459,12 +13465,12 @@
         <v>1502</v>
       </c>
       <c r="B885" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B886" t="s">
         <v>1504</v>
@@ -13475,12 +13481,12 @@
         <v>1505</v>
       </c>
       <c r="B887" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B888" t="s">
         <v>1507</v>
@@ -13507,12 +13513,12 @@
         <v>1512</v>
       </c>
       <c r="B891" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B892" t="s">
         <v>1514</v>
@@ -13587,12 +13593,12 @@
         <v>1531</v>
       </c>
       <c r="B901" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B902" t="s">
         <v>1533</v>
@@ -13603,60 +13609,60 @@
         <v>1534</v>
       </c>
       <c r="B903" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B904" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B905" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B906" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B907" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B908" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B909" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B910" t="s">
         <v>1542</v>
@@ -13691,20 +13697,20 @@
         <v>1549</v>
       </c>
       <c r="B914" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B915" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B916" t="s">
         <v>1552</v>
@@ -13747,20 +13753,20 @@
         <v>1561</v>
       </c>
       <c r="B921" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B922" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B923" t="s">
         <v>1564</v>
@@ -13795,12 +13801,12 @@
         <v>1571</v>
       </c>
       <c r="B927" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B928" t="s">
         <v>1573</v>
@@ -13819,12 +13825,12 @@
         <v>1576</v>
       </c>
       <c r="B930" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B931" t="s">
         <v>1578</v>
@@ -13859,12 +13865,12 @@
         <v>1585</v>
       </c>
       <c r="B935" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B936" t="s">
         <v>1587</v>
@@ -13899,28 +13905,28 @@
         <v>1594</v>
       </c>
       <c r="B940" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B941" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B942" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B943" t="s">
         <v>1598</v>
@@ -13947,20 +13953,20 @@
         <v>1603</v>
       </c>
       <c r="B946" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B947" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B948" t="s">
         <v>1606</v>
@@ -13971,20 +13977,20 @@
         <v>1607</v>
       </c>
       <c r="B949" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B950" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B951" t="s">
         <v>1610</v>
@@ -14019,20 +14025,20 @@
         <v>1617</v>
       </c>
       <c r="B955" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B956" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B957" t="s">
         <v>1620</v>
@@ -14091,28 +14097,28 @@
         <v>1633</v>
       </c>
       <c r="B964" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B965" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B966" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B967" t="s">
         <v>1637</v>
@@ -14203,28 +14209,28 @@
         <v>1658</v>
       </c>
       <c r="B978" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B979" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B980" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B981" t="s">
         <v>1662</v>
@@ -14243,36 +14249,36 @@
         <v>1665</v>
       </c>
       <c r="B983" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B984" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B985" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B986" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B987" t="s">
         <v>1670</v>
@@ -14291,12 +14297,12 @@
         <v>1673</v>
       </c>
       <c r="B989" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B990" t="s">
         <v>1675</v>
@@ -14315,12 +14321,12 @@
         <v>1678</v>
       </c>
       <c r="B992" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B993" t="s">
         <v>1680</v>
@@ -14339,12 +14345,12 @@
         <v>1683</v>
       </c>
       <c r="B995" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B996" t="s">
         <v>1685</v>
@@ -14355,12 +14361,12 @@
         <v>1686</v>
       </c>
       <c r="B997" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B998" t="s">
         <v>1688</v>
@@ -14395,20 +14401,20 @@
         <v>1695</v>
       </c>
       <c r="B1002" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1003" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1004" t="s">
         <v>1698</v>
@@ -14419,12 +14425,12 @@
         <v>1699</v>
       </c>
       <c r="B1005" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1006" t="s">
         <v>1701</v>
@@ -14435,28 +14441,28 @@
         <v>1702</v>
       </c>
       <c r="B1007" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1008" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1009" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1010" t="s">
         <v>1706</v>
@@ -14483,36 +14489,36 @@
         <v>1711</v>
       </c>
       <c r="B1013" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1014" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="B1015" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="B1016" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1017" t="s">
         <v>1716</v>
@@ -14531,12 +14537,12 @@
         <v>1719</v>
       </c>
       <c r="B1019" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1020" t="s">
         <v>1721</v>
@@ -14563,12 +14569,12 @@
         <v>1726</v>
       </c>
       <c r="B1023" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1024" t="s">
         <v>1728</v>
@@ -14579,76 +14585,76 @@
         <v>1729</v>
       </c>
       <c r="B1025" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B1026" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1027" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1028" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B1029" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1030" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1031" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1032" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1033" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1034" t="s">
         <v>1739</v>
@@ -14667,12 +14673,12 @@
         <v>1742</v>
       </c>
       <c r="B1036" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1037" t="s">
         <v>1744</v>
@@ -14947,20 +14953,20 @@
         <v>1811</v>
       </c>
       <c r="B1071" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1072" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="B1073" t="s">
         <v>1814</v>
@@ -14979,20 +14985,20 @@
         <v>1817</v>
       </c>
       <c r="B1075" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="B1076" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B1077" t="s">
         <v>1820</v>
@@ -15003,12 +15009,12 @@
         <v>1821</v>
       </c>
       <c r="B1078" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="B1079" t="s">
         <v>1823</v>
@@ -15019,20 +15025,20 @@
         <v>1824</v>
       </c>
       <c r="B1080" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1081" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1082" t="s">
         <v>1827</v>
@@ -15051,12 +15057,12 @@
         <v>1830</v>
       </c>
       <c r="B1084" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1085" t="s">
         <v>1832</v>
@@ -15107,12 +15113,12 @@
         <v>1843</v>
       </c>
       <c r="B1091" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1092" t="s">
         <v>1845</v>
@@ -15123,15 +15129,15 @@
         <v>1846</v>
       </c>
       <c r="B1093" t="s">
-        <v>130</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1094" t="s">
-        <v>1848</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -15155,12 +15161,12 @@
         <v>1853</v>
       </c>
       <c r="B1097" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="B1098" t="s">
         <v>1855</v>
@@ -15187,12 +15193,12 @@
         <v>1860</v>
       </c>
       <c r="B1101" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B1102" t="s">
         <v>1862</v>
@@ -15203,20 +15209,20 @@
         <v>1863</v>
       </c>
       <c r="B1103" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="B1104" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B1105" t="s">
         <v>1866</v>
@@ -15259,20 +15265,20 @@
         <v>1875</v>
       </c>
       <c r="B1110" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B1111" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="B1112" t="s">
         <v>1878</v>
@@ -15427,28 +15433,28 @@
         <v>1915</v>
       </c>
       <c r="B1131" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B1132" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="B1133" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B1134" t="s">
         <v>1919</v>
@@ -15459,12 +15465,12 @@
         <v>1920</v>
       </c>
       <c r="B1135" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="B1136" t="s">
         <v>1922</v>
@@ -15483,28 +15489,28 @@
         <v>1925</v>
       </c>
       <c r="B1138" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="B1139" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="B1140" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="B1141" t="s">
         <v>1929</v>
@@ -15571,12 +15577,12 @@
         <v>1944</v>
       </c>
       <c r="B1149" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B1150" t="s">
         <v>1946</v>
@@ -15635,28 +15641,28 @@
         <v>1959</v>
       </c>
       <c r="B1157" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1158" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B1159" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B1160" t="s">
         <v>1963</v>
@@ -15683,20 +15689,20 @@
         <v>1968</v>
       </c>
       <c r="B1163" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="B1164" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="B1165" t="s">
         <v>1971</v>
@@ -15707,36 +15713,36 @@
         <v>1972</v>
       </c>
       <c r="B1166" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B1167" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="B1168" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="B1169" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="B1170" t="s">
         <v>1977</v>
@@ -15755,12 +15761,12 @@
         <v>1980</v>
       </c>
       <c r="B1172" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1173" t="s">
         <v>1982</v>
@@ -15771,12 +15777,12 @@
         <v>1983</v>
       </c>
       <c r="B1174" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B1175" t="s">
         <v>1985</v>
@@ -15795,36 +15801,36 @@
         <v>1988</v>
       </c>
       <c r="B1177" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B1178" t="s">
-        <v>793</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B1179" t="s">
-        <v>1990</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1180" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1181" t="s">
         <v>1993</v>
@@ -15835,20 +15841,20 @@
         <v>1994</v>
       </c>
       <c r="B1182" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B1183" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B1184" t="s">
         <v>1997</v>
@@ -15870,8 +15876,16 @@
         <v>2001</v>
       </c>
     </row>
+    <row r="1187" spans="1:2">
+      <c r="A1187" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>2003</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1186"/>
+  <autoFilter ref="A1:B1187"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/it/headTags.xlsx
+++ b/lang/it/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1188</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2006">
   <si>
     <t>en</t>
   </si>
@@ -3049,2932 +3049,2938 @@
     <t>Ipixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutazioni)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Ipixel (PNG)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Ipixel (Animali domestici)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Ipixel (Pietra da Riformare)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Ipixel (Sacchi)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Ipixel (Pelli)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Ipixel (Talismani)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pesce trofeo)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Il paese dei lustri)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Era glaciale</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Arrampicatore di ghiaccio</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Gelato</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Icone (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icone (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Icone (Altro)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Icone (sfondo bianco)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Identità V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Inazuma Undici</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Incredibili</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Parco Indaco</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Ferite</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Blocco dello strato interno</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Crittografia</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Insetto</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Dentro e fuori</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Invincibile</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak e Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Giappone</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Vaso</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Gioielli</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>La bizzarra avventura di JoJo</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Le bizzarre avventure di JoJo (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Viaggio</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Re del salto</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Paradiso Kaiju</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Cucina</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Paralume</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Paesaggio</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Lanterna</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Castello nel cielo</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Lega delle Leggende</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon leggendari</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Lega Letale</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteca di Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Compagnia del Limbus</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Il Re Leone</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Piccolo Grande Pianeta</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>La Sirenetta</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Piccoli incubi</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>La piccola bottega degli orrori</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>La piccola strega Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Il Signore degli Anelli</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Amore in diretta!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Creatura innamorata</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Persona innamorata</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Luke il fortunato</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Parte di macchina</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Padre pazzo</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Fatto nell'abisso</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Follia da combattimento</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Trucco</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Maschio</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Eroi del Cuore Puro</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Meraviglioso</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Maria e il fiore della strega</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Mascotte</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maschera</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maschera (completa)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maschera (funzionale)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maschera (salute)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Maschera (mob di Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Effetto di massa</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>I Maestri dell'Universo</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Simbolo matematico</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Carne</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Medievale</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Taverna medievale</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Elmo da guerra medievale</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Mega Evoluzione</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Attori di Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Ingranaggio metallico</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Messico</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Topolino</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Equipaggiamento militare</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Minecraft Pesce d'Aprile</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Edizione Bedrock</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Dongioni di Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Terra</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Edizione Educazione</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Leggende di Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft dal vivo</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Film di Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Modalità storia di Minecraft</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Minatore</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculous: I racconti di Ladybug e Cat Noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Diario del futuro)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Bordo dello specchio</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>La cameriera del drago di Miss Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Il pacchetto di risorse di Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Casco di Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Soldi</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Rapina di denaro</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monocolo</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Cacciatore di mostri</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Montagne del caos</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Lavaggio in bocca</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Droni assassini</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Fungo</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Fungo (Bioma)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Fungo (Copricapo)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musica</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Baffi</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Il mio amico cervo Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>Il mio eroe Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>Il mio piccolo Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Il mio vicino Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>I miei mostri canterini</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä della Valle del Vento</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (ispirato)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Creatura neutrale</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Persona neutrale</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Capodanno</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Notte nel bosco</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Tartarughe Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>La festa in casa di Noel</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitologia norrena</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>PNG (edizione didattica)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Fallout nucleare</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Trono nucleare</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Dado</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Oceano</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Agente Cap</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy e gli scarafaggi</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Vecchio</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Oggetti Open Source</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Orco</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Organi e parti del corpo</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Altri copricapi</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Altre illuminazioni</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Altre creature mistiche</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Blocco dello strato esterno</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Signore Supremo</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Ciuccio</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Faccia dipinta</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Giardino pallido (ispirato)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Orso panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Labirinto di padelle</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>Documenti per favore</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>PaRappa il rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Festa</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Pasticcini e dolcetti</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Giorno di paga</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pinguino</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Tavola periodica degli elementi</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Animali domestici</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Phineas e Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Maiale</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Pantera Rosa</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky e il cervello</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Pirati dei Caraibi</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Torre della pizza</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Pianeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Piante contro Zombi</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Campi di battaglia di Playerunknown</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Generazione 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Oggetti Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Allenatore di Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Orso polare</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Polizia</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Portale</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Le Superchicche</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Orgoglio</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Principessa Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Zucca</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Zucca (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Segno di punteggiatura</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Coniglio</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Ferrovia</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Il mondo della pioggia</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Ratchet e Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Creatori</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Il regno del dio pazzo</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Cappuccetto Rosso</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Pietra Rossa</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Forma regionale Pokemon</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Spettacolo regolare</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religione</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Rettile</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Ranger di salvataggio</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Il male residente</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Il paradiso del ritmo</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Nastro</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick e Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Rischio di pioggia</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Fiume</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Roditore</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Entità ruotata</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Copricapo reale</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runa</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Una grande avventura</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Creatura triste</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Persona triste</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Altro)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga di Tanya la malvagia</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Elmo da samurai</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Soddisfacente</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Sega</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Sciarpa</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Violazione del contenimento SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Urlo</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Il mare dei ladri</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Marinaio</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serafino della fine</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Esperimenti seriali Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Sette peccati capitali</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>L'ombra del Colosso</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Ombre di Mordor</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Pecora</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon lucenti</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Spedizione</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Cavaliere della pala</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>Collina silenziosa</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Scheletro</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Scheletro (Vaniglia)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Creatura scettica</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Persona scettica</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Bella addormentata</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Creatura addormentata</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Persona addormentata</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Affettato</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Melma</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Melma (Vaniglia)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Ranchero della melma</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Fumo</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Puffi</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Lotta alla neve</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Scultura di neve</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Biancaneve e i sette nani</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Canzoni di guerra</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Sonic il riccio</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>Cavaliere dell'anima</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Parco Sud</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Viaggio nello spazio</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Uovo di Spawn</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Ragno (Vaniglia)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>L'uomo ragno</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Spora</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Lo sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Primavera alla vita</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Spia x Famiglia</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>Gioco del calamaro</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Festa di San Patrizio</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Volpe Stellare</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Star contro le forze del male</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Guerre stellari</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Casco Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Casco da soldato di Guerre Stellari</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Valle di Stardew</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Cartoleria</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Universo Steven</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Pietra</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Storage (altro)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Estate</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Occhiali da sole</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Soprannaturale</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Creatura sorpresa</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Persona sorpresa</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Palude</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Ringraziamento</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Quella volta che mi sono reincarnato in uno slime</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Le avventure di Tintin</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Il fantastico circo digitale</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Il fantastico mondo di Gumball</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>Il legame di Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>I ragazzi</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Il ritorno del gatto</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>L'Evocazione</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>L'età del rame</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>Il nuovo mondo dell'imperatore</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Le stelle dell'ensemble inglese</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>I Genitori Dispari</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>La finale</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>I Flintstones</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>La mosca</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Il giardino si risveglia</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Il Dinosauro Buono</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Il grande detective dei topi</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Le tristi avventure di Billy e Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Il gobbo di Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Il gigante di ferro</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>L'ultimo guardiano</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>L'ultimo di noi</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>La leggenda di Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Il Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>L'Isola che non c'è</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>La casa dei gufi</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>La principessa e il ranocchio</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Lo spettacolo di Ren e Stimpy</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>La strada per El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Il massacro della motosega del Texas</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>I tre Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>I file Walten</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Lo spettacolo di Woody Woodpecker</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Quelle notti da Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Il costrutto di Tinker</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom e Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>I pionieri del domani</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Isola del dramma totale</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Progetto Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Storia del giocattolo</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Traffico</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Semaforo</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Segno del traffico</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Sentieri e racconti</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Trasformatori</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Testa trasparente</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Tesoro</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Il pianeta del tesoro</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Aggiornamento delle prove difficili</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Tartaruga</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Foresta crepuscolare</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Il paese delle meraviglie contorto</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Umineko - Quando piangono</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Undertale Giallo</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Simbolo universale</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Vita selvaggia urbana</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V per Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Vaniglia (rimosso)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Blocco di vaniglia</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Cibo Vaniglia</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Casco di vaniglia</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Oggetto Vaniglia</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Mafia Vaniglia</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Cacciatori di volte</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Vegetale</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Veicolo</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Vichinghi</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Villano</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Abitante (deserto)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Abitante (Giungla)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Abitante (Pianura)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Abitante (Savana)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Abitante (Tundra innevata)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Abitante (Palude)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Abitante (Taiga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Youtuber virtuale</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Morto che cammina</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace e Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>La guerra dei mondi</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Gatti guerrieri</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>Noi Orsi</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Noi felici pochi</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Il tempo</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Benvenuti a casa</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Chi è questo?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Aggiornamento selvaggio</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Ali di fuoco</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Inverno</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Strega</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Meraviglioso mondo delle meraviglie</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Il legno</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Lana</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Casco di sicurezza da lavoro</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Ralph Spaccatutto</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Cronache Xenoblade</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Simulatore di Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Sottomarino giallo</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Giovane</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Ala Zero</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Segno zodiacale</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (Vaniglia)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Tag Hypixel (Mutazioni)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Ipixel (PNG)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Ipixel (Animali domestici)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Ipixel (Pietra da Riformare)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Ipixel (Sacchi)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Ipixel (Pelli)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Ipixel (Talismani)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pesce trofeo)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Il paese dei lustri)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Era glaciale</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Arrampicatore di ghiaccio</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Gelato</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Icone (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icone (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Icone (Altro)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Icone (sfondo bianco)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Identità V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Inazuma Undici</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Incredibili</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Parco Indaco</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Ferite</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Blocco dello strato interno</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Crittografia</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Insetto</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Dentro e fuori</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Invincibile</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak e Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Giappone</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Vaso</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Gioielli</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>La bizzarra avventura di JoJo</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Le bizzarre avventure di JoJo (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Viaggio</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Re del salto</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Paradiso Kaiju</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Cucina</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Paralume</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Paesaggio</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Lanterna</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Castello nel cielo</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Lega delle Leggende</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon leggendari</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Lega Letale</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteca di Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Compagnia del Limbus</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Il Re Leone</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Piccolo Grande Pianeta</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>La Sirenetta</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Piccoli incubi</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>La piccola bottega degli orrori</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>La piccola strega Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Il Signore degli Anelli</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Amore in diretta!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Creatura innamorata</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Persona innamorata</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Luke il fortunato</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Parte di macchina</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Padre pazzo</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Fatto nell'abisso</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Follia da combattimento</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Trucco</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Maschio</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Eroi del Cuore Puro</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Meraviglioso</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Maria e il fiore della strega</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Mascotte</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maschera</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maschera (completa)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maschera (funzionale)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maschera (salute)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Maschera (mob di Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Effetto di massa</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>I Maestri dell'Universo</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Simbolo matematico</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Pasto</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Carne</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Medievale</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Taverna medievale</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Elmo da guerra medievale</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Mega Evoluzione</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Attori di Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Ingranaggio metallico</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Messico</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Topolino</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Equipaggiamento militare</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Minecraft Pesce d'Aprile</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Edizione Bedrock</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Dongioni di Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Terra</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Edizione Educazione</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Leggende di Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft dal vivo</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Film di Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Modalità storia di Minecraft</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Minatore</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculous: I racconti di Ladybug e Cat Noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Diario del futuro)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Bordo dello specchio</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>La cameriera del drago di Miss Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Il pacchetto di risorse di Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Casco di Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Soldi</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Rapina di denaro</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monocolo</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Cacciatore di mostri</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Montagne del caos</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Lavaggio in bocca</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Droni assassini</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Fungo</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Fungo (Bioma)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Fungo (Copricapo)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Musica</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Baffi</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Il mio amico cervo Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>Il mio eroe Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>Il mio piccolo Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Il mio vicino Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>I miei mostri canterini</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä della Valle del Vento</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (ispirato)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Creatura neutrale</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Persona neutrale</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Capodanno</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Notte nel bosco</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Tartarughe Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>La festa in casa di Noel</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitologia norrena</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>PNG (edizione didattica)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Fallout nucleare</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Trono nucleare</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Dado</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Oceano</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Agente Cap</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy e gli scarafaggi</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Vecchio</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Oggetti Open Source</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Orco</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Organi e parti del corpo</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Altri copricapi</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Altre illuminazioni</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Altre creature mistiche</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Blocco dello strato esterno</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Signore Supremo</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Ciuccio</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Faccia dipinta</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Giardino pallido (ispirato)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Orso panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Labirinto di padelle</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>Documenti per favore</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>PaRappa il rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Festa</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Pasticcini e dolcetti</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Giorno di paga</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pinguino</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Tavola periodica degli elementi</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Animali domestici</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Phineas e Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Maiale</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Pantera Rosa</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky e il cervello</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Pirati dei Caraibi</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Torre della pizza</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Pianeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Piante contro Zombi</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Campi di battaglia di Playerunknown</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Generazione 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Oggetti Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Allenatore di Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Orso polare</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Polizia</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Portale</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Le Superchicche</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Presente</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Orgoglio</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Principessa Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Zucca</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Zucca (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Segno di punteggiatura</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Coniglio</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Ferrovia</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Il mondo della pioggia</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Ratchet e Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Creatori</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Il regno del dio pazzo</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Cappuccetto Rosso</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Pietra Rossa</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Forma regionale Pokemon</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Spettacolo regolare</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religione</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Rettile</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Ranger di salvataggio</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Il male residente</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Il paradiso del ritmo</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Nastro</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick e Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Rischio di pioggia</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Fiume</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Roditore</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Entità ruotata</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Copricapo reale</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runa</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Una grande avventura</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Creatura triste</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Persona triste</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Altro)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga di Tanya la malvagia</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Elmo da samurai</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Soddisfacente</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Sega</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Sciarpa</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Violazione del contenimento SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Urlo</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Il mare dei ladri</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Marinaio</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serafino della fine</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Esperimenti seriali Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Sette peccati capitali</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>L'ombra del Colosso</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Ombre di Mordor</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Pecora</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon lucenti</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Spedizione</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Cavaliere della pala</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>Collina silenziosa</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Scheletro</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Scheletro (Vaniglia)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Creatura scettica</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Persona scettica</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Bella addormentata</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Creatura addormentata</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Persona addormentata</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>Affettato</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Melma</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Melma (Vaniglia)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Ranchero della melma</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Fumo</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Puffi</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Lotta alla neve</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Scultura di neve</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Biancaneve e i sette nani</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Canzoni di guerra</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Sonic il riccio</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>Cavaliere dell'anima</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Parco Sud</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Viaggio nello spazio</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Uovo di Spawn</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Ragno (Vaniglia)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>L'uomo ragno</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Spora</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Lo sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Primavera alla vita</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Spia x Famiglia</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>Gioco del calamaro</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Festa di San Patrizio</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Volpe Stellare</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Star contro le forze del male</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Guerre stellari</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Casco Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Casco da soldato di Guerre Stellari</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Valle di Stardew</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Cartoleria</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Universo Steven</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Pietra</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Storage (altro)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Estate</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Occhiali da sole</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Soprannaturale</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Creatura sorpresa</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Persona sorpresa</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Palude</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Ringraziamento</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Quella volta che mi sono reincarnato in uno slime</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Le avventure di Tintin</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Il fantastico circo digitale</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Il fantastico mondo di Gumball</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>Il legame di Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>I ragazzi</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Il ritorno del gatto</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>L'Evocazione</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>L'età del rame</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>Il nuovo mondo dell'imperatore</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Le stelle dell'ensemble inglese</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>I Genitori Dispari</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>La finale</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>I Flintstones</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>La mosca</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Il giardino si risveglia</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Il Dinosauro Buono</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Il grande detective dei topi</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Le tristi avventure di Billy e Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Il gobbo di Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Il gigante di ferro</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>L'ultimo guardiano</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>L'ultimo di noi</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>La leggenda di Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Il Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>L'Isola che non c'è</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>La casa dei gufi</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>La principessa e il ranocchio</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Lo spettacolo di Ren e Stimpy</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>La strada per El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Il massacro della motosega del Texas</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>I tre Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>I file Walten</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Lo spettacolo di Woody Woodpecker</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Quelle notti da Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Il costrutto di Tinker</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom e Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>I pionieri del domani</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Isola del dramma totale</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Progetto Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Storia del giocattolo</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Traffico</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Semaforo</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Segno del traffico</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Sentieri e racconti</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Trasformatori</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Testa trasparente</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Tesoro</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Il pianeta del tesoro</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Aggiornamento delle prove difficili</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Tartaruga</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Foresta crepuscolare</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Il paese delle meraviglie contorto</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Umineko - Quando piangono</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Undertale Giallo</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Simbolo universale</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>Su</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Vita selvaggia urbana</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V per Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Vaniglia (rimosso)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Blocco di vaniglia</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Cibo Vaniglia</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Casco di vaniglia</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Oggetto Vaniglia</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Mafia Vaniglia</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Cacciatori di volte</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Vegetale</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Veicolo</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Vichinghi</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Villano</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Abitante (deserto)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Abitante (Giungla)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Abitante (Pianura)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Abitante (Savana)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Abitante (Tundra innevata)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Abitante (Palude)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Abitante (Taiga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Youtuber virtuale</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Morto che cammina</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace e Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>La guerra dei mondi</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Gatti guerrieri</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>Noi Orsi</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Noi felici pochi</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Il tempo</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Benvenuti a casa</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Chi è questo?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Aggiornamento selvaggio</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Ali di fuoco</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Inverno</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Strega</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Meraviglioso mondo delle meraviglie</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Il legno</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Casco di sicurezza da lavoro</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Ralph Spaccatutto</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Cronache Xenoblade</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Simulatore di Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Sottomarino giallo</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Giovane</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Ala Zero</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Segno zodiacale</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (Vaniglia)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -6375,7 +6381,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1187"/>
+  <dimension ref="A1:B1188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15809,36 +15815,36 @@
         <v>1990</v>
       </c>
       <c r="B1178" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B1179" t="s">
-        <v>793</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
       <c r="A1180" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B1180" t="s">
-        <v>1992</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1181" spans="1:2">
       <c r="A1181" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B1181" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B1182" t="s">
         <v>1995</v>
@@ -15849,20 +15855,20 @@
         <v>1996</v>
       </c>
       <c r="B1183" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B1184" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1185" t="s">
         <v>1999</v>
@@ -15884,8 +15890,16 @@
         <v>2003</v>
       </c>
     </row>
+    <row r="1188" spans="1:2">
+      <c r="A1188" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>2005</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1187"/>
+  <autoFilter ref="A1:B1188"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
